--- a/experimental_data_collection/Parameter experimentation data.xlsx
+++ b/experimental_data_collection/Parameter experimentation data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceccarelli/Google Drive/REU/REU-Drone-Swarm-Optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceccarelli/Google Drive/REU/REU-Drone-Swarm-Optimization/experimental_data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64790528-15D3-D34A-86F7-8532027CA996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16083EFE-9054-FA4F-9823-4BB7FE272536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18560" windowHeight="16440" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
   </bookViews>
@@ -5717,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A9D61-3F65-DF48-ABDD-6756A70D5827}">
   <dimension ref="B3:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="223" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7115,11 +7115,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="T22:X23"/>
-    <mergeCell ref="T26:X30"/>
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="H26:L27"/>
     <mergeCell ref="B21:F21"/>
@@ -7129,6 +7124,11 @@
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N22:R23"/>
     <mergeCell ref="N26:R27"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="T22:X23"/>
+    <mergeCell ref="T26:X30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
